--- a/Instances/K5017435_NonStationary_b4_fe25_en_rk75_ll0_l40_HTrue_c0.xlsx
+++ b/Instances/K5017435_NonStationary_b4_fe25_en_rk75_ll0_l40_HTrue_c0.xlsx
@@ -1004,7 +1004,7 @@
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>13.73787111502427</v>
+        <v>13.99195395983183</v>
       </c>
       <c r="I2" t="n">
         <v>400</v>
@@ -1462,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5625</v>
+        <v>6.1875</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.265625</v>
+        <v>11.59375</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.296875</v>
+        <v>16.04296875</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17.2607421875</v>
+        <v>15.380859375</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.596923828125</v>
+        <v>20.97412109375</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.194580078125</v>
+        <v>16.4404296875</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.0633544921875</v>
+        <v>20.57975769042969</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21.14734649658203</v>
+        <v>25.19683837890625</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21.73550987243652</v>
+        <v>25.43517112731934</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21.4688675403595</v>
+        <v>24.06400537490845</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>

--- a/Instances/K5017435_NonStationary_b4_fe25_en_rk75_ll0_l40_HTrue_c0.xlsx
+++ b/Instances/K5017435_NonStationary_b4_fe25_en_rk75_ll0_l40_HTrue_c0.xlsx
@@ -1004,7 +1004,7 @@
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>13.99195395983183</v>
+        <v>14.40853942357577</v>
       </c>
       <c r="I2" t="n">
         <v>400</v>
@@ -1462,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.1875</v>
+        <v>7.75</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.59375</v>
+        <v>12.25</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>16.04296875</v>
+        <v>13.0078125</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.380859375</v>
+        <v>18.2861328125</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20.97412109375</v>
+        <v>19.44873046875</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16.4404296875</v>
+        <v>24.04412841796875</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20.57975769042969</v>
+        <v>24.47908020019531</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25.19683837890625</v>
+        <v>23.39706420898438</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.43517112731934</v>
+        <v>20.34813690185547</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>24.06400537490845</v>
+        <v>24.29992699623108</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>

--- a/Instances/K5017435_NonStationary_b4_fe25_en_rk75_ll0_l40_HTrue_c0.xlsx
+++ b/Instances/K5017435_NonStationary_b4_fe25_en_rk75_ll0_l40_HTrue_c0.xlsx
@@ -1004,7 +1004,7 @@
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>14.40853942357577</v>
+        <v>14.01970382837149</v>
       </c>
       <c r="I2" t="n">
         <v>400</v>
@@ -1462,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.75</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.25</v>
+        <v>10.28125</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.0078125</v>
+        <v>14.59765625</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18.2861328125</v>
+        <v>17.431640625</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.44873046875</v>
+        <v>18.114013671875</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24.04412841796875</v>
+        <v>23.22210693359375</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24.47908020019531</v>
+        <v>19.71324157714844</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20.34813690185547</v>
+        <v>24.04779815673828</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>24.29992699623108</v>
+        <v>25.9513783454895</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
